--- a/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2030-Onshore-3x.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2030-Onshore-3x.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Desktop\ISONE_SANDY\ISONE_UCED\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Documents\GitHub\ISONE_UCED_Sandy\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4494" uniqueCount="1095">
   <si>
     <t>State</t>
   </si>
@@ -3309,6 +3309,18 @@
   </si>
   <si>
     <t>CT-Offshore</t>
+  </si>
+  <si>
+    <t>CT_NG</t>
+  </si>
+  <si>
+    <t>NEMA_NG</t>
+  </si>
+  <si>
+    <t>SEMA_NG</t>
+  </si>
+  <si>
+    <t>WCMA_NG</t>
   </si>
 </sst>
 </file>
@@ -3818,7 +3830,7 @@
   <dimension ref="A1:N349"/>
   <sheetViews>
     <sheetView topLeftCell="A324" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353"/>
+      <selection activeCell="E353" sqref="E353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -20011,7 +20023,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="2" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>698</v>
@@ -20063,7 +20075,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="2" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>698</v>
@@ -20115,7 +20127,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="2" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>698</v>
@@ -20167,13 +20179,13 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="2" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>1066</v>
+        <v>6</v>
       </c>
       <c r="D349" s="2">
         <v>56</v>
@@ -20230,7 +20242,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M6:M7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
